--- a/data/hotels_by_city/Houston/Houston_shard_154.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_154.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56701-d10660416-Reviews-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-By-Marriott-Houston-Springwoods-Village.h15584584.Hotel-Information?chkin=7%2F9%2F2018&amp;chkout=7%2F10%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530453078352&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=a6088237-c21a-4b3f-ab37-62825fc62605&amp;mctc=9&amp;exp_dp=104&amp;exp_ts=1530453079002&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,424 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r586781868-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>10660416</t>
+  </si>
+  <si>
+    <t>586781868</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Big room. Great service!</t>
+  </si>
+  <si>
+    <t>The location is good for do business with ExxonMobil Campus. Hotel also provide free pickup between hotel and campus. The room is big and clean. Everything is in the room e.g. microwave, coffee maker.Last but not least. the staffs are very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>The location is good for do business with ExxonMobil Campus. Hotel also provide free pickup between hotel and campus. The room is big and clean. Everything is in the room e.g. microwave, coffee maker.Last but not least. the staffs are very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r586470661-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>586470661</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>As you would expect from a Courtyard inn</t>
+  </si>
+  <si>
+    <t>Located at the Holzwarth Road, i.e. in the middle of nowhere.  The hotel is well maintained, has a little pool and gym.No breakfast buffet, which I felt was a disadvantage, if you want B/F with a bit of everything it's both going to be pretty expensive and taking rather long to prepare.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Located at the Holzwarth Road, i.e. in the middle of nowhere.  The hotel is well maintained, has a little pool and gym.No breakfast buffet, which I felt was a disadvantage, if you want B/F with a bit of everything it's both going to be pretty expensive and taking rather long to prepare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r579984016-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>579984016</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Fine but isolated hotel</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here in a very spacious and comfortable king bedroom. The bed slept very well. The bathroom was unnecessarily large but I sure did like that big shower. There was a gas station/car wash outside my window and I never heard a sound from it. The gym was not too shabby either. They had the treadmills with personal TVs. Freeweights up to 50 lbs and functional trainer cable machine. The pool looked refreshing but I didn't have time for it. There is nothing but a CVS within a walkable distance. Some nearby restaurants but you'll need a car or ride share to get anywhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here in a very spacious and comfortable king bedroom. The bed slept very well. The bathroom was unnecessarily large but I sure did like that big shower. There was a gas station/car wash outside my window and I never heard a sound from it. The gym was not too shabby either. They had the treadmills with personal TVs. Freeweights up to 50 lbs and functional trainer cable machine. The pool looked refreshing but I didn't have time for it. There is nothing but a CVS within a walkable distance. Some nearby restaurants but you'll need a car or ride share to get anywhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r566008699-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>566008699</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Not set up for business guests</t>
+  </si>
+  <si>
+    <t>I stayed here for a week as I was working very close by.The hotel was clean and the facilities good.But:There was no safe in the room, a new hotel within close proximity to a large site, this is unacceptable in the 21st century with all of the electronic  devices one carries.Breakfast was from the Starbucks in the lobby, this would be ok apart from it took the one lady (who was extremely courteous) 10 to 15 mins to deliver 1 order. I believe a 2nd person came to help later in the morning after all of the business travellers had gone. There were no restaurants nearby so you had to go to the woodlands mall or Hughes landing. In my view you might as well stay near the mall or Hughes landing and have a longer drive into workMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Cindy B, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for a week as I was working very close by.The hotel was clean and the facilities good.But:There was no safe in the room, a new hotel within close proximity to a large site, this is unacceptable in the 21st century with all of the electronic  devices one carries.Breakfast was from the Starbucks in the lobby, this would be ok apart from it took the one lady (who was extremely courteous) 10 to 15 mins to deliver 1 order. I believe a 2nd person came to help later in the morning after all of the business travellers had gone. There were no restaurants nearby so you had to go to the woodlands mall or Hughes landing. In my view you might as well stay near the mall or Hughes landing and have a longer drive into workMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r564715210-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>564715210</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Great New Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights over a weekend and was really impressed. It’s new and clean throughout the hotel. Gym is nice and there is self laundry. There is a bistro downstairs that serves Starbucks coffee. There is also a nice trail outside the hotel where you can job or walk. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights over a weekend and was really impressed. It’s new and clean throughout the hotel. Gym is nice and there is self laundry. There is a bistro downstairs that serves Starbucks coffee. There is also a nice trail outside the hotel where you can job or walk. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r561802028-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>561802028</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>No heart</t>
+  </si>
+  <si>
+    <t>I travel all the time on business and know what a nonrefundable rate means, but when I called to see how they could work with me since my mother was taken to the emergency room and checked into the hospital...they couldn’t work with me on any refund or even a credit for when I return to Spring in two weeks. I will never stay at a Marriott again. Absolutely no heart. They don’t care about their guests. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Cindy B, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>I travel all the time on business and know what a nonrefundable rate means, but when I called to see how they could work with me since my mother was taken to the emergency room and checked into the hospital...they couldn’t work with me on any refund or even a credit for when I return to Spring in two weeks. I will never stay at a Marriott again. Absolutely no heart. They don’t care about their guests. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r533692082-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>533692082</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very comfortable and pleasant </t>
+  </si>
+  <si>
+    <t>My stay has been excellent. The Hotel is clean and pleasant and the staff is friendly and attentive to your needs. Location easily accessible and has a nearby service station.There is a pleasant cafe and the food is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Cindy B, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>My stay has been excellent. The Hotel is clean and pleasant and the staff is friendly and attentive to your needs. Location easily accessible and has a nearby service station.There is a pleasant cafe and the food is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r526734486-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>526734486</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Disappointing Stay</t>
+  </si>
+  <si>
+    <t>The room was clean but the phone, internet, and TV did not work the three nights that I stayed there. I checked in on Monday but wasn't officially notified of the problem until Wednesday. The hotel said the issue was due to a lightning strike. I understand that unforeseen incidents occur but at least have a solution ready or offer the guest something for the inconvenience. I was charged full price (which was higher than normal) and the problem was not addressed during my entire stay. They dropped the ball on this one!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>The room was clean but the phone, internet, and TV did not work the three nights that I stayed there. I checked in on Monday but wasn't officially notified of the problem until Wednesday. The hotel said the issue was due to a lightning strike. I understand that unforeseen incidents occur but at least have a solution ready or offer the guest something for the inconvenience. I was charged full price (which was higher than normal) and the problem was not addressed during my entire stay. They dropped the ball on this one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r525011732-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>525011732</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>One night</t>
+  </si>
+  <si>
+    <t>I have stayed here once before and the hotel was great.  So I returned and was disappointed with the cleanliness. The chair in the room had hair on it and it looks like a droplet of blood and it is covered in stains. The bed and bathroom looked clean but I was concerned if it really was or not. I contacted customer service and they contacted the hotel and told customer service they contacted me, but they never spoke to me.  I am changing my review to terrible since management lied.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed here once before and the hotel was great.  So I returned and was disappointed with the cleanliness. The chair in the room had hair on it and it looks like a droplet of blood and it is covered in stains. The bed and bathroom looked clean but I was concerned if it really was or not. I contacted customer service and they contacted the hotel and told customer service they contacted me, but they never spoke to me.  I am changing my review to terrible since management lied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r479017334-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>479017334</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>In town for long weekend</t>
+  </si>
+  <si>
+    <t>New property, very clean and modern.  Great atmosphere.  Room was great.  No great views, had to look at the gas station, but no big deal.  Staff needs to work out some kinks.  Bistro was not staffed/open when advertised, and there are not any nearby restaurants that fit our tight schedule. Had to ask staff multiple times for  food delivery options in the area.  ( Would have been great if the Bistro in the lobby was an option )  Also would recommend adding more kid friendly menu options.  Did love the Starbucks .  Would stay again.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r472516643-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>472516643</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice property </t>
+  </si>
+  <si>
+    <t>Very nice property and reasonably priced. Close to The Woodlands area with many great restaurants and other interesting locations. Really modern and warm feeling. Easy to reach off the freeway and reasonably close to the airport.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r471275069-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>471275069</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First and last </t>
+  </si>
+  <si>
+    <t>Terrible experience with this hotel. Firstly, upon arrival, I requested for a list of restaurants that delivers food to the hotel (because their bistro will only be open at 6pm) and I travelled for 26 hours to the States. I am jet lagged, hungry and tired. The last thing I want is to wait for the bistro to be open, I need food and snooze straight away. So I was promised that they will send me the list of restaurants. However, an hour later, I called the front desk, I was told that they are still downloading the the info from the net. And that was the last I heard from them. No follow up thereafter.
+Secondly, the waiting time for both breakfast and dinner is way too long. I don't think they can handle the rush hour at all. I was told that I have wait 30mins for my dinner after queuing for 15mins!! And I queued for another 30mins the next morning just to have my orders taken! Don't think they are ready for serious business.
+Lastly, they have a sign at the front desk that indicates shuttle service to the Woodlands mall but when approached they said service was no longer available. Nevertheless, after much negotiations, they called the Uber service for us for both ways. Going was easy because it is simply dropping us off the mall. But the coming back is terrible! They hotel staff...Terrible experience with this hotel. Firstly, upon arrival, I requested for a list of restaurants that delivers food to the hotel (because their bistro will only be open at 6pm) and I travelled for 26 hours to the States. I am jet lagged, hungry and tired. The last thing I want is to wait for the bistro to be open, I need food and snooze straight away. So I was promised that they will send me the list of restaurants. However, an hour later, I called the front desk, I was told that they are still downloading the the info from the net. And that was the last I heard from them. No follow up thereafter.Secondly, the waiting time for both breakfast and dinner is way too long. I don't think they can handle the rush hour at all. I was told that I have wait 30mins for my dinner after queuing for 15mins!! And I queued for another 30mins the next morning just to have my orders taken! Don't think they are ready for serious business.Lastly, they have a sign at the front desk that indicates shuttle service to the Woodlands mall but when approached they said service was no longer available. Nevertheless, after much negotiations, they called the Uber service for us for both ways. Going was easy because it is simply dropping us off the mall. But the coming back is terrible! They hotel staff lacked coordination with the driver and they did not even call to inform us the pick up location in spite of us ringing up the hotel numerous times. In the end, we waited for 55mins but still no sign of the Uber car. So we asked a passer by to book the car on our behalf instead and it only took 10mins for the car to arrive. Because of that, we were run late for another car that was scheduled to pick us to the airport from the hotel and by the time we reached the hotel, that car cancelled my booking because of "no-show". Can you imagine our anxieties?!!We went as a group of more than 20 individuals for an entire week of business meetings, and I don't see their effort in making us feelimportant or homely. It's a shame to be carrying the Marriott's name and not living up to it. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Terrible experience with this hotel. Firstly, upon arrival, I requested for a list of restaurants that delivers food to the hotel (because their bistro will only be open at 6pm) and I travelled for 26 hours to the States. I am jet lagged, hungry and tired. The last thing I want is to wait for the bistro to be open, I need food and snooze straight away. So I was promised that they will send me the list of restaurants. However, an hour later, I called the front desk, I was told that they are still downloading the the info from the net. And that was the last I heard from them. No follow up thereafter.
+Secondly, the waiting time for both breakfast and dinner is way too long. I don't think they can handle the rush hour at all. I was told that I have wait 30mins for my dinner after queuing for 15mins!! And I queued for another 30mins the next morning just to have my orders taken! Don't think they are ready for serious business.
+Lastly, they have a sign at the front desk that indicates shuttle service to the Woodlands mall but when approached they said service was no longer available. Nevertheless, after much negotiations, they called the Uber service for us for both ways. Going was easy because it is simply dropping us off the mall. But the coming back is terrible! They hotel staff...Terrible experience with this hotel. Firstly, upon arrival, I requested for a list of restaurants that delivers food to the hotel (because their bistro will only be open at 6pm) and I travelled for 26 hours to the States. I am jet lagged, hungry and tired. The last thing I want is to wait for the bistro to be open, I need food and snooze straight away. So I was promised that they will send me the list of restaurants. However, an hour later, I called the front desk, I was told that they are still downloading the the info from the net. And that was the last I heard from them. No follow up thereafter.Secondly, the waiting time for both breakfast and dinner is way too long. I don't think they can handle the rush hour at all. I was told that I have wait 30mins for my dinner after queuing for 15mins!! And I queued for another 30mins the next morning just to have my orders taken! Don't think they are ready for serious business.Lastly, they have a sign at the front desk that indicates shuttle service to the Woodlands mall but when approached they said service was no longer available. Nevertheless, after much negotiations, they called the Uber service for us for both ways. Going was easy because it is simply dropping us off the mall. But the coming back is terrible! They hotel staff lacked coordination with the driver and they did not even call to inform us the pick up location in spite of us ringing up the hotel numerous times. In the end, we waited for 55mins but still no sign of the Uber car. So we asked a passer by to book the car on our behalf instead and it only took 10mins for the car to arrive. Because of that, we were run late for another car that was scheduled to pick us to the airport from the hotel and by the time we reached the hotel, that car cancelled my booking because of "no-show". Can you imagine our anxieties?!!We went as a group of more than 20 individuals for an entire week of business meetings, and I don't see their effort in making us feelimportant or homely. It's a shame to be carrying the Marriott's name and not living up to it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r461009927-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>461009927</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Exxon Meeting</t>
+  </si>
+  <si>
+    <t>Hotel, is very nice, stayed three night's a breeze checking in, not so much for the night time, went to have a cocktail and the lady told me it would be 15min for one, wow! so I Decided to give it another try doing the morning, and the young that was there was such a nice gal, I told her about my experience and she told me she was sorry about that. and comp my coffee. and she had a line but got everybody out so quickly, only if there were two of her, one for the nights especially! over all the hotel is a great place to stay, will return again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel, is very nice, stayed three night's a breeze checking in, not so much for the night time, went to have a cocktail and the lady told me it would be 15min for one, wow! so I Decided to give it another try doing the morning, and the young that was there was such a nice gal, I told her about my experience and she told me she was sorry about that. and comp my coffee. and she had a line but got everybody out so quickly, only if there were two of her, one for the nights especially! over all the hotel is a great place to stay, will return again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r460062714-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>460062714</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Bland and average</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times on business.Working for it... proximity to client in North Houston.Working against it... the whole place is pretty tired and in need of an uplift.  Aircon is really loud.  In the summer this would really annoy you.  The staff are really friendly but just don't seem to be trained in basic customer service.  Trying to get food in the morning or night is such a drawn out and slow process... even down to the fact some of the bar staff don't even know how to make a cappuccino.  A few times I had to leave before my food order arrived at breakfast.If it wasn't for the proximity to client I wouldn't stay here.  Many more options.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times on business.Working for it... proximity to client in North Houston.Working against it... the whole place is pretty tired and in need of an uplift.  Aircon is really loud.  In the summer this would really annoy you.  The staff are really friendly but just don't seem to be trained in basic customer service.  Trying to get food in the morning or night is such a drawn out and slow process... even down to the fact some of the bar staff don't even know how to make a cappuccino.  A few times I had to leave before my food order arrived at breakfast.If it wasn't for the proximity to client I wouldn't stay here.  Many more options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r459813941-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>459813941</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>We had a very pleasant stay at rhis hotel. The Hotel staff was very knowledgeable and courteous.  The Room was spacious and comfortable.  Very clean and plenty of parking.  The Hotel restaurant and Starbucks were very nice as well as the lobby and seating area</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r442394950-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>442394950</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>A Courtyard that acts like a Renaissance</t>
+  </si>
+  <si>
+    <t>This is literally the nicest Courtyard I have ever seen - the lobby is beautiful, the rooms are spacious, well-appointed and all brand new, and the staff is fantastic.At the front desk, after a Loooooooong travel day,  the nicest girl greeted me and took great care of me - Ebony - and she also served me breakfast today and remembered my name and how stressed out I was yesterday and asked how I was doing.  The bartender Amanda on Monday night, also super nice and friendly and helped me pick a place for dinner.There was a housekeeper on my floor when I was heading to my room after checkin on Monday, too, who could see I was tired and stressed and was so nice and friendly.This place is great - if I ever find myself back in the area, I will definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>This is literally the nicest Courtyard I have ever seen - the lobby is beautiful, the rooms are spacious, well-appointed and all brand new, and the staff is fantastic.At the front desk, after a Loooooooong travel day,  the nicest girl greeted me and took great care of me - Ebony - and she also served me breakfast today and remembered my name and how stressed out I was yesterday and asked how I was doing.  The bartender Amanda on Monday night, also super nice and friendly and helped me pick a place for dinner.There was a housekeeper on my floor when I was heading to my room after checkin on Monday, too, who could see I was tired and stressed and was so nice and friendly.This place is great - if I ever find myself back in the area, I will definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r433247828-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>433247828</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>Had the pleasure of staying at this hotel for a night recently. It is obviously new and in a very quiet area, but still close to many restaurants and the airport (IAH). Checking was easy and simple. The front desk staff were polite and very quick with their actions. They explained everything about the hotel in detail and offered their assistance on ideas for things to do in the area. The room is beautiful. Very big shower, with a nice design. The room is not your usual basic Courtyard decor. It was more modern than usual. I was thoroughly impressed, especially after staying at another Courtyard a few days earlier. This hotel is definitely on my list when next in The area. If I had to say something negative about the place, being extremely petty, the hallway carpet is kinda weird looking.....but who cares really? MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Had the pleasure of staying at this hotel for a night recently. It is obviously new and in a very quiet area, but still close to many restaurants and the airport (IAH). Checking was easy and simple. The front desk staff were polite and very quick with their actions. They explained everything about the hotel in detail and offered their assistance on ideas for things to do in the area. The room is beautiful. Very big shower, with a nice design. The room is not your usual basic Courtyard decor. It was more modern than usual. I was thoroughly impressed, especially after staying at another Courtyard a few days earlier. This hotel is definitely on my list when next in The area. If I had to say something negative about the place, being extremely petty, the hallway carpet is kinda weird looking.....but who cares really? More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +959,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +991,1120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_154.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_154.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r607788526-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>10660416</t>
+  </si>
+  <si>
+    <t>607788526</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Great, new location for work</t>
+  </si>
+  <si>
+    <t>The plus for this hotel is its proximity to the offices nearby and the fact that it is new. The elderly breakfast lady at The Bistro is also very helpful and friendly.The area of improvement is the front desk staff, who have a high turnover and don’t seem to like their jobs. They also don’t seem to be consistent in recognizing elite members in terms of providing the welcome bottle (tiny) of water. They provide it some times and don’t at other times, though my elite status has remained the same :) Surprised at that sloppiness.Could provide a lot more in that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The plus for this hotel is its proximity to the offices nearby and the fact that it is new. The elderly breakfast lady at The Bistro is also very helpful and friendly.The area of improvement is the front desk staff, who have a high turnover and don’t seem to like their jobs. They also don’t seem to be consistent in recognizing elite members in terms of providing the welcome bottle (tiny) of water. They provide it some times and don’t at other times, though my elite status has remained the same :) Surprised at that sloppiness.Could provide a lot more in that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r598040056-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>598040056</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>It was a fast business stay, but it exceeded my expectations. The hotel is either new or recently renovated. Great room layout, work space and shower. Will definitively stay here again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>It was a fast business stay, but it exceeded my expectations. The hotel is either new or recently renovated. Great room layout, work space and shower. Will definitively stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r591292261-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>591292261</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>New modern rooms</t>
+  </si>
+  <si>
+    <t>Nice stay in modern room with large shower.Included internet was sufficiently fast to stream video. No reward for being Marriott gold elite. :(Room was unnecessarily set to 65F when it was about 90 outside. Too cold and wasting energy.Good power outlets. Breakfast you buy at the little counter. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Nice stay in modern room with large shower.Included internet was sufficiently fast to stream video. No reward for being Marriott gold elite. :(Room was unnecessarily set to 65F when it was about 90 outside. Too cold and wasting energy.Good power outlets. Breakfast you buy at the little counter. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r586781868-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
   </si>
   <si>
-    <t>56701</t>
-  </si>
-  <si>
-    <t>10660416</t>
-  </si>
-  <si>
     <t>586781868</t>
   </si>
   <si>
@@ -177,9 +261,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Richard R, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded June 12, 2018</t>
   </si>
   <si>
@@ -240,6 +321,57 @@
     <t>I enjoyed my stay here in a very spacious and comfortable king bedroom. The bed slept very well. The bathroom was unnecessarily large but I sure did like that big shower. There was a gas station/car wash outside my window and I never heard a sound from it. The gym was not too shabby either. They had the treadmills with personal TVs. Freeweights up to 50 lbs and functional trainer cable machine. The pool looked refreshing but I didn't have time for it. There is nothing but a CVS within a walkable distance. Some nearby restaurants but you'll need a car or ride share to get anywhere.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r576034774-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>576034774</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Good experience - room for improvement</t>
+  </si>
+  <si>
+    <t>Hotel room and facilities are very good - clean, 24 hour gym, bar/bistro, pool and business center.One area that needs work - you have to line up at a counter to order breakfast.  The 2 mornings I was here the line was 6-8 deep and not moving so I gave up.  Hotel management - please consider a buffet configuration or some other option to speed this up - at least allow guests to get their own coffee.  Not a good setup and the first Courtyard I’ve seen with this inefficient setup.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Hotel room and facilities are very good - clean, 24 hour gym, bar/bistro, pool and business center.One area that needs work - you have to line up at a counter to order breakfast.  The 2 mornings I was here the line was 6-8 deep and not moving so I gave up.  Hotel management - please consider a buffet configuration or some other option to speed this up - at least allow guests to get their own coffee.  Not a good setup and the first Courtyard I’ve seen with this inefficient setup.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r572918841-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>572918841</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Great everything!</t>
+  </si>
+  <si>
+    <t>Visited Houston to go test a few sports cars that were at a nearby dealer.  We selected this hotel from reviews and location.  We were not disappointed.  The location is excellent.  Located in a new development with a lot of nice houses and beautifully landscaped buildings.  The expressway is very close by so it's easy to move around.  Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Visited Houston to go test a few sports cars that were at a nearby dealer.  We selected this hotel from reviews and location.  We were not disappointed.  The location is excellent.  Located in a new development with a lot of nice houses and beautifully landscaped buildings.  The expressway is very close by so it's easy to move around.  Highly recommended!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r566008699-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
   </si>
   <si>
@@ -321,6 +453,63 @@
     <t>I travel all the time on business and know what a nonrefundable rate means, but when I called to see how they could work with me since my mother was taken to the emergency room and checked into the hospital...they couldn’t work with me on any refund or even a credit for when I return to Spring in two weeks. I will never stay at a Marriott again. Absolutely no heart. They don’t care about their guests. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r539775751-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>539775751</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>New and Modern</t>
+  </si>
+  <si>
+    <t>One night stay.  Hotel looks brand new and modern.  Some furniture already starting to show some wear.  Toilet handle was very loose and jiggly.  Room wasn't as clean as I expected.  Some crumbs left on the chair, bottle cap under chair.  Both were very visible, guess housekeeping doesn't put forth much effort.  Still, I'd stay here again.  Price was very low.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Cindy B, Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>One night stay.  Hotel looks brand new and modern.  Some furniture already starting to show some wear.  Toilet handle was very loose and jiggly.  Room wasn't as clean as I expected.  Some crumbs left on the chair, bottle cap under chair.  Both were very visible, guess housekeeping doesn't put forth much effort.  Still, I'd stay here again.  Price was very low.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r536853964-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>536853964</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>One day stay</t>
+  </si>
+  <si>
+    <t>I must say this is one of the nicest, prettiest hotels I have ever stayed in. Beautiful room luxurious linens. Incredible bathrooms. But their breakfast was one of the worst I’ve ever had! Eggs were ordered over medium and they were basically burnt. I’m staying again in 7 days but won’t eat here!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Cindy B, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded November 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2017</t>
+  </si>
+  <si>
+    <t>I must say this is one of the nicest, prettiest hotels I have ever stayed in. Beautiful room luxurious linens. Incredible bathrooms. But their breakfast was one of the worst I’ve ever had! Eggs were ordered over medium and they were basically burnt. I’m staying again in 7 days but won’t eat here!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r533692082-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
   </si>
   <si>
@@ -336,9 +525,6 @@
     <t>My stay has been excellent. The Hotel is clean and pleasant and the staff is friendly and attentive to your needs. Location easily accessible and has a nearby service station.There is a pleasant cafe and the food is good.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>Cindy B, General Manager at Courtyard Houston Springwoods Village, responded to this reviewResponded October 18, 2017</t>
   </si>
   <si>
@@ -397,6 +583,42 @@
   </si>
   <si>
     <t>I have stayed here once before and the hotel was great.  So I returned and was disappointed with the cleanliness. The chair in the room had hair on it and it looks like a droplet of blood and it is covered in stains. The bed and bathroom looked clean but I was concerned if it really was or not. I contacted customer service and they contacted the hotel and told customer service they contacted me, but they never spoke to me.  I am changing my review to terrible since management lied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r506000271-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>506000271</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Great location, next to the freeway and close to the airport. The rooms are modern and very spacious. Staff is friendly and work hard to make your stay enjoyable. The Bistro provides great selections for breakfast and dinner.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r497579232-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>497579232</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Business Stay-Middle of the Week-It was Pretty Darn Nice</t>
+  </si>
+  <si>
+    <t>So it's a little tough to find if you aren't familiar with that neighborhood.  It's right off of 99 Grand Parkway near I-45.  It seems remote now but there is a lot of construction and someday Springwood Village will be huge. I felt really comfortable there. The lighting and interior in the halls made it feel really homey. The rooms are modern with a throwback feel.  The furniture design is retro but was all new and very spacious as was the bathroom.  They have the new style shower that I'm seeing in a lot of hotels. Really long and wide, all glass. The bed was cozy with lots of pillows. There really is no view, but your not at the beach you're in Spring.  Location is close to multiple freeways, the Woodlands,  Tomball. I noticed a decent size swimming pool. I did not eat or drink there but spotted a nice bar and what looked like a small cafe.  Parking is free and easy to get. The front desk staff was friendly and courteous. There is a gas station right nextdoor if you are getting low. There is a basketball court in the parking lot that they share with the Residence Inn.  Free wifi. Over a really good three day stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>So it's a little tough to find if you aren't familiar with that neighborhood.  It's right off of 99 Grand Parkway near I-45.  It seems remote now but there is a lot of construction and someday Springwood Village will be huge. I felt really comfortable there. The lighting and interior in the halls made it feel really homey. The rooms are modern with a throwback feel.  The furniture design is retro but was all new and very spacious as was the bathroom.  They have the new style shower that I'm seeing in a lot of hotels. Really long and wide, all glass. The bed was cozy with lots of pillows. There really is no view, but your not at the beach you're in Spring.  Location is close to multiple freeways, the Woodlands,  Tomball. I noticed a decent size swimming pool. I did not eat or drink there but spotted a nice bar and what looked like a small cafe.  Parking is free and easy to get. The front desk staff was friendly and courteous. There is a gas station right nextdoor if you are getting low. There is a basketball court in the parking lot that they share with the Residence Inn.  Free wifi. Over a really good three day stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r479017334-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
@@ -463,6 +685,39 @@
 Lastly, they have a sign at the front desk that indicates shuttle service to the Woodlands mall but when approached they said service was no longer available. Nevertheless, after much negotiations, they called the Uber service for us for both ways. Going was easy because it is simply dropping us off the mall. But the coming back is terrible! They hotel staff...Terrible experience with this hotel. Firstly, upon arrival, I requested for a list of restaurants that delivers food to the hotel (because their bistro will only be open at 6pm) and I travelled for 26 hours to the States. I am jet lagged, hungry and tired. The last thing I want is to wait for the bistro to be open, I need food and snooze straight away. So I was promised that they will send me the list of restaurants. However, an hour later, I called the front desk, I was told that they are still downloading the the info from the net. And that was the last I heard from them. No follow up thereafter.Secondly, the waiting time for both breakfast and dinner is way too long. I don't think they can handle the rush hour at all. I was told that I have wait 30mins for my dinner after queuing for 15mins!! And I queued for another 30mins the next morning just to have my orders taken! Don't think they are ready for serious business.Lastly, they have a sign at the front desk that indicates shuttle service to the Woodlands mall but when approached they said service was no longer available. Nevertheless, after much negotiations, they called the Uber service for us for both ways. Going was easy because it is simply dropping us off the mall. But the coming back is terrible! They hotel staff lacked coordination with the driver and they did not even call to inform us the pick up location in spite of us ringing up the hotel numerous times. In the end, we waited for 55mins but still no sign of the Uber car. So we asked a passer by to book the car on our behalf instead and it only took 10mins for the car to arrive. Because of that, we were run late for another car that was scheduled to pick us to the airport from the hotel and by the time we reached the hotel, that car cancelled my booking because of "no-show". Can you imagine our anxieties?!!We went as a group of more than 20 individuals for an entire week of business meetings, and I don't see their effort in making us feelimportant or homely. It's a shame to be carrying the Marriott's name and not living up to it. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r468889573-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>468889573</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Manager Saves The Day...</t>
+  </si>
+  <si>
+    <t>This is a new property.  Clean.  Nice.  The management goes out of their way to make things right.   One huge challenge with this property - it is one of a group of newer properties that uses a temperature governing thermostat throughout the property.  Our experience was it tried to keep the room to a range of 70 to 75 degrees.  Great for most people, but too warm for people who have conditions requiring cooler temperatures.   We saw an occasional 69 degrees, but the units struggles to hold that.  The answer is they need to allow the governing thermostats to a temperature of 65 to 67 degrees that they will hold.  This problem will become more acute in the summer if not addressed.   Management assures me they are on this that they will figure this out.  Top rate - highly attentive management doing everything they can to make it right.   Only reason I am describing this in detail is a solid night of sleep is essential to the value premise of what we are getting from a hotel.   A hot night is a tough night, but again, they are on it....   Love everything else about the property and again it is run and managed extremely well.   Anybody who can work with 70 degrees and above will dig it!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new property.  Clean.  Nice.  The management goes out of their way to make things right.   One huge challenge with this property - it is one of a group of newer properties that uses a temperature governing thermostat throughout the property.  Our experience was it tried to keep the room to a range of 70 to 75 degrees.  Great for most people, but too warm for people who have conditions requiring cooler temperatures.   We saw an occasional 69 degrees, but the units struggles to hold that.  The answer is they need to allow the governing thermostats to a temperature of 65 to 67 degrees that they will hold.  This problem will become more acute in the summer if not addressed.   Management assures me they are on this that they will figure this out.  Top rate - highly attentive management doing everything they can to make it right.   Only reason I am describing this in detail is a solid night of sleep is essential to the value premise of what we are getting from a hotel.   A hot night is a tough night, but again, they are on it....   Love everything else about the property and again it is run and managed extremely well.   Anybody who can work with 70 degrees and above will dig it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r461427240-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>461427240</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl Weekend</t>
+  </si>
+  <si>
+    <t>After confusion with checking we settled in with a nice room on the first floor.  Stayed three nights in this new quite courtyard. Surprising front desk was not much help with info getting to Houston via bus or train. Restaurant in the hotel was good for quick meal. No other restaurants in walking distance. This is located near exon/moil head quarters nice quit safe area.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r461009927-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
   </si>
   <si>
@@ -523,6 +778,36 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r459603321-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>459603321</t>
+  </si>
+  <si>
+    <t>Comfortable well-appointed business hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for a few nights on a business trip. The hotel is very nice, clean, and the rooms have enough outlets and USB ports so charging devices is easy and convenient. Comfortable beds and pillows and the bathrooms are clean and nicely done.The restaurant is limited but adequate and it has a nice service where you can order the food and pick it up to eat in your room.  This would be the only thing that can use some improvement.  As you are basically captive, it would be great if the food quality and selection could be better.Overall, if I come back, I will stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r443265946-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>443265946</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand spanking new </t>
+  </si>
+  <si>
+    <t>Always nice to visit a new Marriott property.  Everything was new and nicely decorated and the staff were great!    The hotel  is located in a relatively new area so make sure you know how to get there as I did get lost due to my out of date GPS.I stayed here for 3 nights.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10660416-r442394950-Courtyard_Houston_Springwoods_Village-Spring_Texas.html</t>
   </si>
   <si>
@@ -538,9 +823,6 @@
     <t>This is literally the nicest Courtyard I have ever seen - the lobby is beautiful, the rooms are spacious, well-appointed and all brand new, and the staff is fantastic.At the front desk, after a Loooooooong travel day,  the nicest girl greeted me and took great care of me - Ebony - and she also served me breakfast today and remembered my name and how stressed out I was yesterday and asked how I was doing.  The bartender Amanda on Monday night, also super nice and friendly and helped me pick a place for dinner.There was a housekeeper on my floor when I was heading to my room after checkin on Monday, too, who could see I was tired and stressed and was so nice and friendly.This place is great - if I ever find myself back in the area, I will definitely stay there again!MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>This is literally the nicest Courtyard I have ever seen - the lobby is beautiful, the rooms are spacious, well-appointed and all brand new, and the staff is fantastic.At the front desk, after a Loooooooong travel day,  the nicest girl greeted me and took great care of me - Ebony - and she also served me breakfast today and remembered my name and how stressed out I was yesterday and asked how I was doing.  The bartender Amanda on Monday night, also super nice and friendly and helped me pick a place for dinner.There was a housekeeper on my floor when I was heading to my room after checkin on Monday, too, who could see I was tired and stressed and was so nice and friendly.This place is great - if I ever find myself back in the area, I will definitely stay there again!More</t>
   </si>
   <si>
@@ -560,9 +842,6 @@
   </si>
   <si>
     <t>October 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>Had the pleasure of staying at this hotel for a night recently. It is obviously new and in a very quiet area, but still close to many restaurants and the airport (IAH). Checking was easy and simple. The front desk staff were polite and very quick with their actions. They explained everything about the hotel in detail and offered their assistance on ideas for things to do in the area. The room is beautiful. Very big shower, with a nice design. The room is not your usual basic Courtyard decor. It was more modern than usual. I was thoroughly impressed, especially after staying at another Courtyard a few days earlier. This hotel is definitely on my list when next in The area. If I had to say something negative about the place, being extremely petty, the hallway carpet is kinda weird looking.....but who cares really? More</t>
@@ -1100,7 +1379,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1111,13 +1390,9 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1165,7 +1440,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -1173,17 +1448,17 @@
       <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1235,34 +1510,28 @@
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1278,7 +1547,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1287,22 +1556,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -1310,20 +1579,24 @@
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1339,7 +1612,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1348,43 +1621,49 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1400,7 +1679,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1409,32 +1688,38 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1482,7 +1767,7 @@
         <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
         <v>106</v>
@@ -1543,31 +1828,35 @@
         <v>114</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
         <v>116</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>117</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1583,7 +1872,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1592,22 +1881,26 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
         <v>120</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>121</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>122</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
         <v>123</v>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1661,31 +1954,31 @@
         <v>131</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
         <v>132</v>
       </c>
-      <c r="O11" t="s">
-        <v>133</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -1701,7 +1994,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1710,22 +2003,22 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
         <v>53</v>
@@ -1739,10 +2032,14 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -1758,7 +2055,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1767,39 +2064,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1815,7 +2122,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1824,45 +2131,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +2183,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1887,49 +2192,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
@@ -1945,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1954,25 +2253,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -1983,10 +2282,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
@@ -2002,7 +2305,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2011,43 +2314,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>172</v>
-      </c>
-      <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
@@ -2063,7 +2362,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2072,25 +2371,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="O18" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2104,7 +2403,790 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>199</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>207</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>213</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>207</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" t="s">
+        <v>207</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>219</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>243</v>
+      </c>
+      <c r="X26" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" t="s">
+        <v>249</v>
+      </c>
+      <c r="L27" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>251</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65554</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>151</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
